--- a/artifact/data/rdbms-05.data.xlsx
+++ b/artifact/data/rdbms-05.data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10206"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexiality/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="10540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="6840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
     <sheet name="MultiSelect1" sheetId="4" r:id="rId2"/>
     <sheet name="MultiUpdate1" sheetId="3" r:id="rId3"/>
+    <sheet name="MultiUpdate2" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>true</t>
   </si>
@@ -85,9 +86,6 @@
     <t>sentry.verbose</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -173,6 +171,15 @@
   </si>
   <si>
     <t>SELECT new customer</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>INSERT new customers</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/rdbms-05-INSERT_new_customers.sql</t>
   </si>
 </sst>
 </file>
@@ -309,7 +316,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -833,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA10"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -871,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
@@ -891,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
@@ -911,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
@@ -931,21 +1003,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="22" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="21" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="13" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -959,7 +1031,7 @@
   <dimension ref="A1:AAA10"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -989,45 +1061,45 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="HA2" s="4"/>
       <c r="AAA2" s="5"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:703">
@@ -1036,32 +1108,32 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A4:A1048576 A1:A2">
-    <cfRule type="beginsWith" dxfId="12" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="16" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576 B1:B2">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="8" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="beginsWith" dxfId="7" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="12" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A3,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="11" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A3,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1074,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916A13F-8DD0-C640-BBB7-EA6741DFE035}">
   <dimension ref="A1:AAA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1091,20 +1163,20 @@
   <sheetData>
     <row r="1" spans="1:703" ht="19" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703" ht="22" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7"/>
       <c r="HA2" s="6"/>
@@ -1112,47 +1184,193 @@
     </row>
     <row r="3" spans="1:703" ht="21" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703" ht="21" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
     <row r="5" spans="1:703" ht="21" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HA5" s="6"/>
       <c r="AAA5" s="6"/>
     </row>
     <row r="6" spans="1:703" ht="21" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703" ht="21" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703" ht="21" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703" ht="21" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="HA11" s="4"/>
+      <c r="AAA11" s="5"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="HA12" s="4"/>
+      <c r="AAA12" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B1048576 D2 B1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1661A8F9-2475-304C-876C-21F9F5A9C744}">
+  <dimension ref="A1:AAA12"/>
+  <sheetViews>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="105.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703" ht="19" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703" ht="22" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703" ht="21" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
+    </row>
+    <row r="4" spans="1:703" ht="21" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HA4" s="6"/>
+      <c r="AAA4" s="6"/>
+    </row>
+    <row r="5" spans="1:703" ht="21" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA5" s="6"/>
+      <c r="AAA5" s="6"/>
+    </row>
+    <row r="6" spans="1:703" ht="21" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703" ht="21" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>25</v>
@@ -1161,22 +1379,10 @@
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703" ht="21" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703" ht="21" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>

--- a/artifact/data/rdbms-05.data.xlsx
+++ b/artifact/data/rdbms-05.data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexiality/tutorials/artifact/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="6840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="440" windowWidth="33600" windowHeight="6540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1146,9 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916A13F-8DD0-C640-BBB7-EA6741DFE035}">
   <dimension ref="A1:AAA12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>

--- a/artifact/data/rdbms-05.data.xlsx
+++ b/artifact/data/rdbms-05.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB73ECE-7DD7-7542-9FD3-FE20AD9B31DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77001C1A-056C-F142-A37B-5056418773EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="440" windowWidth="33600" windowHeight="6540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -39,10 +39,15 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -320,31 +325,6 @@
   <dxfs count="23">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -612,6 +592,31 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -906,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -5895,21 +5900,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="22" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="21" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5922,7 +5927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABD4F70-3C14-5946-A09B-F86B175B48E0}">
   <dimension ref="A1:AAA10"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -9490,34 +9497,34 @@
       <c r="H10" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A4:A1048576 A1:A2">
-    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="16" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576 B1:B2">
-    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="12" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A3,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="11" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A3,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9530,7 +9537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916A13F-8DD0-C640-BBB7-EA6741DFE035}">
   <dimension ref="A1:AAA12"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -15939,21 +15948,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="6" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 D2 B1">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20965,21 +20974,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="1" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 D2 B1">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/rdbms-05.data.xlsx
+++ b/artifact/data/rdbms-05.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77001C1A-056C-F142-A37B-5056418773EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A223FCF7-A9B4-6641-A411-5EF64C9390D7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9538,7 +9538,7 @@
   <dimension ref="A1:AAA12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
